--- a/ExcelRead/bin/TestData/TESTSUITE.xlsx
+++ b/ExcelRead/bin/TestData/TESTSUITE.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>STATUS</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>reports</t>
   </si>
 </sst>
 </file>
@@ -100,9 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -386,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD15"/>
@@ -411,6 +415,9 @@
       <c r="D1" t="s" s="4">
         <v>12</v>
       </c>
+      <c r="E1" t="s" s="5">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
